--- a/Képek/Viktoria/1.nap/1_nap.xlsx
+++ b/Képek/Viktoria/1.nap/1_nap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apalo\Desktop\All\aaIskolai\2.év\2felev\kutatas\Gamification\Képek\Viktoria\1.nap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D74C9E-1CC3-4C74-AC70-7CAC0AD3C8C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBBEE14-E4F1-4A0F-A441-C035D8547BBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="2025" windowWidth="15375" windowHeight="7875" xr2:uid="{3069A29F-2C0E-4010-9725-F914A5D5C305}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>elfeljtés</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>11x</t>
+  </si>
+  <si>
+    <t>összesen megcsinált:</t>
   </si>
 </sst>
 </file>
@@ -128,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -249,11 +252,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -278,6 +296,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,19 +624,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93AC3FCE-6CBC-4A85-87D1-98169E814AB2}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3">
         <v>43920</v>
       </c>
@@ -618,8 +650,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -632,8 +667,11 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -646,8 +684,11 @@
       <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -660,8 +701,11 @@
       <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -674,8 +718,11 @@
       <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -688,8 +735,11 @@
       <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -702,8 +752,11 @@
       <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -716,8 +769,11 @@
       <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -730,8 +786,11 @@
       <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -743,6 +802,13 @@
       </c>
       <c r="D10" s="10" t="s">
         <v>17</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="15">
+        <f>SUM(F2:F9)</f>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
